--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -743,6 +743,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -743,7 +743,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3779175172231425</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008163265306122547</v>
+        <v>-0.0008163265306122547</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.1956126310391179</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008244023083265883</v>
+        <v>-0.0008244023083264773</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,7 +577,7 @@
         <v>0.08676277036677929</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.001119820828667351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -628,7 +628,7 @@
         <v>0.1399066073964858</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.001102535832414486</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0005879607278291843</v>
+        <v>-0.0006029852779443345</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3779175172231425</v>
+        <v>0.3778368431813535</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008163265306122547</v>
+        <v>-0.004084967320261423</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1956126310391179</v>
+        <v>0.1955692929390116</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008244023083264773</v>
+        <v>-0.004125412541254092</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08676277036677929</v>
+        <v>0.0867179012271439</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001119820828667351</v>
+        <v>-0.004484304932735328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0798344494904674</v>
+        <v>0.07988261753280335</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.00101626016260159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199660244840069</v>
+        <v>0.120156670314824</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009852216748769127</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1399066073964858</v>
+        <v>0.1398366748048637</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001102535832414486</v>
+        <v>-0.004415011037527616</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0006029852779443345</v>
+        <v>-0.003555951106674504</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778368431813535</v>
+        <v>0.3776362480587719</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004084967320261423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955692929390116</v>
+        <v>0.1954575263323061</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004125412541254092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0867179012271439</v>
+        <v>0.08663710903867974</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.004484304932735328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07988261753280335</v>
+        <v>0.08008621868889658</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.120156670314824</v>
+        <v>0.1204667798546795</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009842519685039353</v>
+        <v>-0.0009852216748769127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1398366748048637</v>
+        <v>0.1397161180266662</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004415011037527616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.003555951106674504</v>
+        <v>-0.0001186864826154821</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776362480587719</v>
+        <v>0.3776810736969595</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008203445447088065</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954575263323061</v>
+        <v>0.1954807272522427</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08663710903867974</v>
+        <v>0.08664739291297238</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001126126126125948</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08008621868889658</v>
+        <v>0.08009572496876566</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001017293997965352</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1204667798546795</v>
+        <v>0.1203623787594382</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009852216748769127</v>
+        <v>0.0009861932938857176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1397161180266662</v>
+        <v>0.1397327024096216</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001108647450110745</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0001186864826154821</v>
+        <v>0.0007625002766329381</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776810736969595</v>
+        <v>0.3777029037368221</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008203445447088065</v>
+        <v>0.0008196721311477528</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954807272522427</v>
+        <v>0.1953317867108405</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001657000828500399</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08664739291297238</v>
+        <v>0.08667887613885827</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001126126126125948</v>
+        <v>0.001124859392575894</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.08009572496876566</v>
+        <v>0.0801161173074294</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001017293997965352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1203623787594382</v>
+        <v>0.1203892824690206</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009861932938857176</v>
+        <v>0.0009852216748769127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1397327024096216</v>
+        <v>0.1397810336370288</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001108647450110745</v>
+        <v>0.001107419712070845</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0007625002766329381</v>
+        <v>0.001004165426956138</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3777029037368221</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008196721311477528</v>
+        <v>0.001639344262295062</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.1953317867108405</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001657000828500399</v>
+        <v>0.002485501242750487</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,7 +577,7 @@
         <v>0.08667887613885827</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001124859392575894</v>
+        <v>0.002249718785151789</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.1203892824690206</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009852216748769127</v>
+        <v>0.001970443349753603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001004165426956138</v>
+        <v>0.001691702115683036</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3777029037368221</v>
+        <v>0.3776831614216804</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001639344262295062</v>
+        <v>0.0008183306055646877</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1953317867108405</v>
+        <v>0.1954865790500923</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002485501242750487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08667887613885827</v>
+        <v>0.08672716271013978</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002249718785151789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0801161173074294</v>
+        <v>0.07998081359585524</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1203892824690206</v>
+        <v>0.120422783252838</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001970443349753603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1397810336370288</v>
+        <v>0.139699499969394</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001107419712070845</v>
+        <v>0.001106194690265516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001691702115683036</v>
+        <v>0.0004636045352968132</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776831614216804</v>
+        <v>0.3778170734031359</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008183306055646877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954865790500923</v>
+        <v>0.1953959925817526</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08672716271013978</v>
+        <v>0.08668697423573295</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07998081359585524</v>
+        <v>0.07994375131017921</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.120422783252838</v>
+        <v>0.1203669805747436</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.0009832841691247429</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.139699499969394</v>
+        <v>0.1397892278944554</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001106194690265516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0004636045352968132</v>
+        <v>-0.0001183549464844891</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778170734031359</v>
+        <v>0.3778617952156872</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1953959925817526</v>
+        <v>0.1954191214014082</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008264462809917106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08668697423573295</v>
+        <v>0.08669723528237515</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07994375131017921</v>
+        <v>0.07995321416856339</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.00101626016260159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1203669805747436</v>
+        <v>0.1202628593325395</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009832841691247429</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1397892278944554</v>
+        <v>0.1398057745994264</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001104972375690627</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0001183549464844891</v>
+        <v>0.0001163627025435598</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778617952156872</v>
+        <v>0.3778178313117667</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.0008176614881438837</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954191214014082</v>
+        <v>0.1955578691653652</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008264462809917106</v>
+        <v>-0.0008257638315440907</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08669723528237515</v>
+        <v>0.08668714813154275</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07995321416856339</v>
+        <v>0.07986266786626667</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1202628593325395</v>
+        <v>0.1201305116655082</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009842519685039353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1398057745994264</v>
+        <v>0.1399439718595505</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001104972375690627</v>
+        <v>-0.001103752759381904</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0001163627025435598</v>
+        <v>-0.0006248752506269328</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778178313117667</v>
+        <v>0.37774494769043</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008176614881438837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955578691653652</v>
+        <v>0.1955185592587537</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008257638315440907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08668714813154275</v>
+        <v>0.08674135065477288</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07986266786626667</v>
+        <v>0.07991260327426593</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1201305116655082</v>
+        <v>0.1202056251856729</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1399439718595505</v>
+        <v>0.1398769139361044</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001103752759381904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0006248752506269328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.37774494769043</v>
+        <v>0.3778034315677352</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955185592587537</v>
+        <v>0.1953889374215801</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08674135065477288</v>
+        <v>0.08668384423045483</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07991260327426593</v>
+        <v>0.07994086478235009</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1202056251856729</v>
+        <v>0.1202442838129377</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1398769139361044</v>
+        <v>0.139938638184942</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -560,7 +560,7 @@
         <v>0.1953889374215801</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008264462809917106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,7 +577,7 @@
         <v>0.08668384423045483</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001122334455667895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,7 +594,7 @@
         <v>0.07994086478235009</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.00101626016260159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.1202442838129377</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0009842519685037132</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.0004583581150949811</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778034315677352</v>
+        <v>0.3776665123911305</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001633986928104569</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1953889374215801</v>
+        <v>0.1954811292969243</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008264462809917106</v>
+        <v>0.001650165016501726</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08668384423045483</v>
+        <v>0.08677598190367995</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001122334455667895</v>
+        <v>0.001119820828667351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07994086478235009</v>
+        <v>0.0799277509632203</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1202442838129377</v>
+        <v>0.1202207141955532</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009842519685037132</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.139938638184942</v>
+        <v>0.1399279112494916</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.002205071664828973</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0004583581150949811</v>
+        <v>0.001463614014630243</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776665123911305</v>
+        <v>0.3777307624978117</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001633986928104569</v>
+        <v>0.0008156606851550396</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954811292969243</v>
+        <v>0.1955175432015405</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001650165016501726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08677598190367995</v>
+        <v>0.08674619251256656</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001119820828667351</v>
+        <v>0.001118568232662209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0799277509632203</v>
+        <v>0.07981093855503037</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1202207141955532</v>
+        <v>0.1201630529922224</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009832841691248539</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1399279112494916</v>
+        <v>0.1400315102408282</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002205071664828973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001463614014630243</v>
+        <v>0.0002870933053240599</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3777307624978117</v>
+        <v>0.3781287680242349</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008156606851550396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955175432015405</v>
+        <v>0.1955725403832548</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08674619251256656</v>
+        <v>0.08689798806190271</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001118568232662209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07981093855503037</v>
+        <v>0.0795866508554972</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1201630529922224</v>
+        <v>0.1197038395232733</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1400315102408282</v>
+        <v>0.1401102131518371</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0002870933053240599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3781287680242349</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.0008116883116883189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.1197038395232733</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.0004245099700053157</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3781287680242349</v>
+        <v>0.3779823025788469</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008116883116883189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955725403832548</v>
+        <v>0.1956555981353506</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0008203445447086954</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08689798806190271</v>
+        <v>0.08693489279063368</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.001112347052280249</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0795866508554972</v>
+        <v>0.07962045053056374</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1197038395232733</v>
+        <v>0.1196370393705811</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1401102131518371</v>
+        <v>0.1401697165940241</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0004245099700053157</v>
+        <v>-0.0002203205314807999</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3779823025788469</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.00162469536961829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.1956555981353506</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008203445447086954</v>
+        <v>-0.001640689089417613</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,7 +577,7 @@
         <v>0.08693489279063368</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001112347052280249</v>
+        <v>-0.002224694104560609</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -628,7 +628,7 @@
         <v>0.1401697165940241</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.001095290251917014</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0002203205314807999</v>
+        <v>-0.001245159926785755</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3779823025788469</v>
+        <v>0.3778386660478023</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00162469536961829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1956555981353506</v>
+        <v>0.1955781141605154</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001640689089417613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08693489279063368</v>
+        <v>0.0868496309272485</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002224694104560609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07962045053056374</v>
+        <v>0.07963886268696942</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1196370393705811</v>
+        <v>0.1199039762036663</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1401697165940241</v>
+        <v>0.140190749973798</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001095290251917014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001245159926785755</v>
+        <v>8.085163724569355E-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778386660478023</v>
+        <v>0.3778081196427645</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955781141605154</v>
+        <v>0.1955623026281644</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0008216926869349939</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0868496309272485</v>
+        <v>0.08684260956008288</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07963886268696942</v>
+        <v>0.07971326937587582</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199039762036663</v>
+        <v>0.1198942825546253</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.140190749973798</v>
+        <v>0.140179416238487</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.001096491228070096</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>8.085163724569355E-05</v>
+        <v>-0.000196623269814955</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778081196427645</v>
+        <v>0.377882420119814</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955623026281644</v>
+        <v>0.1954400385736918</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008216926869349939</v>
+        <v>0.000822368421052655</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08684260956008288</v>
+        <v>0.08685968819599109</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07971326937587582</v>
+        <v>0.07972894594192582</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1198942825546253</v>
+        <v>0.12003565870269</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009823182711197198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.140179416238487</v>
+        <v>0.1400532484658871</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001096491228070096</v>
+        <v>0.001097694840834329</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.000196623269814955</v>
+        <v>0.0002335984442740635</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.377882420119814</v>
+        <v>0.3777941679899157</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954400385736918</v>
+        <v>0.1955550809269497</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000822368421052655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08685968819599109</v>
+        <v>0.08683940264663115</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001114827201783797</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07972894594192582</v>
+        <v>0.07962948361849309</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.12003565870269</v>
+        <v>0.1200076251081637</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0009813542688912325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1400532484658871</v>
+        <v>0.1401742397098467</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001097694840834329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0002335984442740635</v>
+        <v>0.0002954230388052537</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3777941679899157</v>
+        <v>0.3776825918509272</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955550809269497</v>
+        <v>0.195497326512673</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08683940264663115</v>
+        <v>0.08691053819958913</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001114827201783797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07962948361849309</v>
+        <v>0.07968678442183529</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1200076251081637</v>
+        <v>0.1200899177749242</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009813542688912325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1401742397098467</v>
+        <v>0.1401328412400511</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0002954230388052537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3776825918509272</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008136696501221952</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.195497326512673</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008216926869351049</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -628,7 +628,7 @@
         <v>0.1401328412400511</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001096491228070429</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.0006216020170637382</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776825918509272</v>
+        <v>0.3777550873890187</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008136696501221952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.195497326512673</v>
+        <v>0.1955364194034732</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008216926869351049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08691053819958913</v>
+        <v>0.08685654799416076</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07968678442183529</v>
+        <v>0.07963728172688039</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1200899177749242</v>
+        <v>0.1200153160124123</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.0009803921568628526</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1401328412400511</v>
+        <v>0.1401993474740545</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001096491228070429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0006216020170637382</v>
+        <v>-0.000117662074522018</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3777550873890187</v>
+        <v>0.3777995400666564</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955364194034732</v>
+        <v>0.1955594293316207</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0008210180623974273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08685654799416076</v>
+        <v>0.08686676891839873</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.00111358574610243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07963728172688039</v>
+        <v>0.07964665311731491</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1200153160124123</v>
+        <v>0.1199117630046851</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009803921568628526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1401993474740545</v>
+        <v>0.1402158455613241</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.000117662074522018</v>
+        <v>-6.382422807604815E-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3777995400666564</v>
+        <v>0.3778236543697454</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.0008130081300814496</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955594293316207</v>
+        <v>0.1954113434860226</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008210180623974273</v>
+        <v>-0.0008216926869349939</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08686676891839873</v>
+        <v>0.0869690532467662</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00111358574610243</v>
+        <v>-0.001112347052280249</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07964665311731491</v>
+        <v>0.07965173682793286</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199117630046851</v>
+        <v>0.1199194167688917</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001962708537782021</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1402158455613241</v>
+        <v>0.1402247953006413</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.001095290251917014</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-6.382422807604815E-05</v>
+        <v>-0.001034217953704397</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3778236543697454</v>
+        <v>0.3779073192013601</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008130081300814496</v>
+        <v>-0.0008136696501220841</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954113434860226</v>
+        <v>0.1954529163293076</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008216926869349939</v>
+        <v>-0.0008223684210525439</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0869690532467662</v>
+        <v>0.08696225139843838</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001112347052280249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07965173682793286</v>
+        <v>0.07965333304048408</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199194167688917</v>
+        <v>0.1198079574463412</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001962708537782021</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1402247953006413</v>
+        <v>0.1402162225840685</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001095290251917014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001034217953704397</v>
+        <v>-0.000350420754492875</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -560,7 +560,7 @@
         <v>0.1954529163293076</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008223684210525439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -594,7 +594,7 @@
         <v>0.07965333304048408</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.1198079574463412</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.001966568338249708</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.000350420754492875</v>
+        <v>8.985147550877315E-06</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3779073192013601</v>
+        <v>0.3775964347254863</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008136696501220841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954529163293076</v>
+        <v>0.1954511601717945</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08696225139843838</v>
+        <v>0.08696147003679885</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07965333304048408</v>
+        <v>0.07973348295133488</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1198079574463412</v>
+        <v>0.120042489382646</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001966568338249708</v>
+        <v>-0.0009813542688908994</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1402162225840685</v>
+        <v>0.1402149627319395</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>8.985147550877315E-06</v>
+        <v>-0.0001178042094037712</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3775964347254863</v>
+        <v>0.37764092241579</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954511601717945</v>
+        <v>0.1954741878539535</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08696147003679885</v>
+        <v>0.08697171567100397</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07973348295133488</v>
+        <v>0.07974287699791521</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.120042489382646</v>
+        <v>0.1199388144704576</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009813542688908994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1402149627319395</v>
+        <v>0.1402314825908796</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0001178042094037712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -594,7 +594,7 @@
         <v>0.07974287699791521</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.1199388144704576</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.0001986932176718526</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.37764092241579</v>
+        <v>0.3777159720176362</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954741878539535</v>
+        <v>0.1955130349679681</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08697171567100397</v>
+        <v>0.08698899979527536</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.00111358574610243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07974287699791521</v>
+        <v>0.07967783331419241</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199388144704576</v>
+        <v>0.1198448087322551</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1402314825908796</v>
+        <v>0.1402593511726727</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001096491228070429</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0001986932176718526</v>
+        <v>0.0004493955629678581</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3777159720176362</v>
+        <v>0.3775463043836313</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955130349679681</v>
+        <v>0.1954252117449179</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08698899979527536</v>
+        <v>0.08704675108180815</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00111358574610243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07967783331419241</v>
+        <v>0.07972289739916848</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1198448087322551</v>
+        <v>0.1199087637690346</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1402593511726727</v>
+        <v>0.1403500716214395</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001096491228070429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0004493955629678581</v>
+        <v>0.0001177885695176073</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3775463043836313</v>
+        <v>0.3775018389820274</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954252117449179</v>
+        <v>0.1954021955998176</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08704675108180815</v>
+        <v>0.08703649917707426</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07972289739916848</v>
+        <v>0.07971350805908298</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199087637690346</v>
+        <v>0.1200124162477181</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009823182711197198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1403500716214395</v>
+        <v>0.1403335419342797</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0001177885695176073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3775018389820274</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008143322475568926</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -560,7 +560,7 @@
         <v>0.1954021955998176</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.000822368421052655</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,7 +577,7 @@
         <v>0.08703649917707426</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001112347052280249</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,7 +594,7 @@
         <v>0.07971350805908298</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001014198782961495</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,7 +611,7 @@
         <v>0.1200124162477181</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0009813542688912325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,7 +628,7 @@
         <v>0.1403335419342797</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001095290251916792</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.0009172453097225919</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3775018389820274</v>
+        <v>0.3774630247140099</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008143322475568926</v>
+        <v>0.0008136696501221952</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954021955998176</v>
+        <v>0.1953836734368269</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000822368421052655</v>
+        <v>0.0008216926869351049</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08703649917707426</v>
+        <v>0.08705346458828597</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001112347052280249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07971350805908298</v>
+        <v>0.07972122947811797</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001014198782961495</v>
+        <v>-0.001013171225937137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1200124162477181</v>
+        <v>0.1200201030681111</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009813542688912325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1403335419342797</v>
+        <v>0.1403585047146481</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001095290251916792</v>
+        <v>0.001094091903719896</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0009172453097225919</v>
+        <v>0.0005404693906856384</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3774630247140099</v>
+        <v>0.3775660920055732</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008136696501221952</v>
+        <v>-0.0008130081300814496</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1953836734368269</v>
+        <v>0.1954385901966764</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008216926869351049</v>
+        <v>-0.0008210180623974273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08705346458828597</v>
+        <v>0.08700644027052724</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07972122947811797</v>
+        <v>0.07959743824336687</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001013171225937137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1200201030681111</v>
+        <v>0.1199552709159296</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1403585047146481</v>
+        <v>0.1404361683679266</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001094091903719896</v>
+        <v>-0.001092896174863411</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0005404693906856384</v>
+        <v>-0.0006209050663064097</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -543,7 +543,7 @@
         <v>0.3775660920055732</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008130081300814496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -628,7 +628,7 @@
         <v>0.1404361683679266</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001092896174863411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0006209050663064097</v>
+        <v>-0.0001604586126408014</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3775660920055732</v>
+        <v>0.3776510424176731</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001622060016220672</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954385901966764</v>
+        <v>0.1954872488427249</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008210180623974273</v>
+        <v>0.001638001638001541</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08700644027052724</v>
+        <v>0.08720011535459105</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.002212389380531254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07959743824336687</v>
+        <v>0.07942163594687722</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001014198782961495</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1199552709159296</v>
+        <v>0.1198076760524864</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1404361683679266</v>
+        <v>0.1404322813856473</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.002181025081788412</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0001604586126408014</v>
+        <v>0.001512537353506982</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776510424176731</v>
+        <v>0.3776923412993141</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001622060016220672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954872488427249</v>
+        <v>0.1955117384690542</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001638001638001541</v>
+        <v>0.0008176614881438837</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08720011535459105</v>
+        <v>0.08726105036559841</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002212389380531254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07942163594687722</v>
+        <v>0.0793821168564495</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001014198782961495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1198076760524864</v>
+        <v>0.119626736145588</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.0009794319294806897</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1404322813856473</v>
+        <v>0.1405260168639958</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002181025081788412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001512537353506982</v>
+        <v>0.0002770286640267905</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3776923412993141</v>
+        <v>0.3775300258349719</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955117384690542</v>
+        <v>0.1955875098878566</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008176614881438837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08726105036559841</v>
+        <v>0.08722354942538776</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.001103752759382015</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0793821168564495</v>
+        <v>0.07934800193340473</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.119626736145588</v>
+        <v>0.1196924417571751</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0009794319294806897</v>
+        <v>-0.0009784735812131684</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1405260168639958</v>
+        <v>0.1406184711612041</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0002770286640267905</v>
+        <v>-2.084265876889368E-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3775300258349719</v>
+        <v>0.3773551076513917</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008130081300812275</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955875098878566</v>
+        <v>0.1954897478422408</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008203445447088065</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08722354942538776</v>
+        <v>0.08724768037771369</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001103752759382015</v>
+        <v>0.001107419712070845</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07934800193340473</v>
+        <v>0.079472276591612</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1196924417571751</v>
+        <v>0.1197707022865026</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009784735812131684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1406184711612041</v>
+        <v>0.1406644852505391</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.001090512540894206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>-2.084265876889368E-05</v>
+        <v>0.0007978604192500072</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3773551076513917</v>
+        <v>0.3773608191604561</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008130081300812275</v>
+        <v>0.001624695369618179</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954897478422408</v>
+        <v>0.1954941397541245</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008203445447088065</v>
+        <v>0.001639344262295284</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08724768037771369</v>
+        <v>0.08727466717625326</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001107419712070845</v>
+        <v>0.002212389380531254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.079472276591612</v>
+        <v>0.07948953755016244</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1197707022865026</v>
+        <v>0.1196752181667622</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1406644852505391</v>
+        <v>0.1407056181922416</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001090512540894206</v>
+        <v>0.002178649237472685</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0007978604192500072</v>
+        <v>0.001433212306516385</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3773608191604561</v>
+        <v>0.3774329739528671</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001624695369618179</v>
+        <v>0.001622060016220672</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1954941397541245</v>
+        <v>0.195534379671151</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001639344262295284</v>
+        <v>0.001636661211129375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08727466717625326</v>
+        <v>0.08734257227363804</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002212389380531254</v>
+        <v>0.002207505518763808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07948953755016244</v>
+        <v>0.07937577521228892</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1196752181667622</v>
+        <v>0.1195039436440543</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1407056181922416</v>
+        <v>0.1408103552460007</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002178649237472685</v>
+        <v>0.002173913043478359</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001433212306516385</v>
+        <v>0.001431161148745419</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3774329739528671</v>
+        <v>0.3775049225101626</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001622060016220672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.195534379671151</v>
+        <v>0.1955745045731707</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001636661211129375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08734257227363804</v>
+        <v>0.08741028328252033</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002207505518763808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07937577521228892</v>
+        <v>0.07926233803353658</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1195039436440543</v>
+        <v>0.1193331586636179</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1408103552460007</v>
+        <v>0.1409147929369919</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002173913043478359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001431161148745419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3775049225101626</v>
+        <v>0.3774446132428106</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008097165991902688</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1955745045731707</v>
+        <v>0.1957030176318769</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08741028328252033</v>
+        <v>0.08739631882847097</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07926233803353658</v>
+        <v>0.07924967527538333</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1193331586636179</v>
+        <v>0.1193140942887166</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.0009813542688908994</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1409147929369919</v>
+        <v>0.1408922807327415</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.0001081588486342433</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/CALI_holdings.xlsx
+++ b/CALI_holdings.xlsx
@@ -83,7 +83,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -540,10 +540,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="1">
-        <v>0.3774446132428106</v>
+        <v>0.3777093837993582</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008097165991902688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1957030176318769</v>
+        <v>0.1956818529079677</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.08739631882847097</v>
+        <v>0.08738686716553261</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.07924967527538333</v>
+        <v>0.07916073841684476</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,10 +608,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1193140942887166</v>
+        <v>0.1191841140763936</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.0009813542688908994</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1408922807327415</v>
+        <v>0.140877043633903</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0001081588486342433</v>
+        <v>0.0001974429647795262</v>
       </c>
     </row>
     <row r="11" spans="1:5">
